--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,106 +40,151 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>poorly</t>
   </si>
   <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>spray</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
     <t>cracked</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>send</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>thick</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>grind</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>spray</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
     <t>iron</t>
   </si>
   <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>received</t>
   </si>
   <si>
-    <t>1</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>machine</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>machine</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>work</t>
@@ -148,30 +193,24 @@
     <t>hard</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
     <t>fit</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>product</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -202,10 +241,10 @@
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>highly</t>
-  </si>
-  <si>
-    <t>great</t>
   </si>
   <si>
     <t>easy</t>
@@ -569,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,38 +677,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>0.8359375</v>
+      </c>
+      <c r="L3">
         <v>107</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>107</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3">
-        <v>0.796875</v>
-      </c>
-      <c r="L3">
-        <v>102</v>
-      </c>
-      <c r="M3">
-        <v>102</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -680,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K4">
-        <v>0.7391304347826086</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9191919191919192</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K5">
-        <v>0.7311827956989247</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8898305084745762</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>0.6915254237288135</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8867924528301887</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K7">
-        <v>0.6300309597523219</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="L7">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="M7">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8275862068965517</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K8">
-        <v>0.5454545454545454</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7783783783783784</v>
+        <v>0.85</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K9">
-        <v>0.4805194805194805</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.775</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>0.3815789473684211</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7727272727272727</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K11">
-        <v>0.2228571428571429</v>
+        <v>0.24</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>0.1801801801801802</v>
+        <v>0.1717495987158908</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7407407407407407</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>0.1685393258426966</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="L13">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1036</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7058823529411765</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>0.05205479452054795</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6792452830188679</v>
+        <v>0.7621621621621621</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6764705882352942</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1290,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6712328767123288</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1308,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1316,13 +1355,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5925925925925926</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1334,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1342,13 +1381,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5566037735849056</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1360,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1368,13 +1407,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1386,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1394,13 +1433,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5348837209302325</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C21">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1412,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1420,13 +1459,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.517948717948718</v>
+        <v>0.59375</v>
       </c>
       <c r="C22">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1438,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1446,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5151515151515151</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1464,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1472,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1490,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1498,13 +1537,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4705882352941176</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1516,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1524,13 +1563,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.46875</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1542,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1550,13 +1589,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4482758620689655</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C27">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1568,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1576,13 +1615,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4366197183098591</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1594,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1602,13 +1641,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4189189189189189</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="C29">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1620,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1628,13 +1667,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.415929203539823</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1646,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1654,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C31">
         <v>18</v>
@@ -1672,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1680,13 +1719,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3076923076923077</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1698,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1706,13 +1745,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3009708737864077</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1724,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1732,13 +1771,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2905027932960894</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="C34">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1750,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>127</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1758,13 +1797,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.25</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1776,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1784,13 +1823,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1752577319587629</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1802,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1810,13 +1849,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1401617250673854</v>
+        <v>0.4121621621621622</v>
       </c>
       <c r="C37">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1828,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>319</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1836,13 +1875,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1238095238095238</v>
+        <v>0.4</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1854,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>184</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1862,13 +1901,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1103448275862069</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1880,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>129</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1888,13 +1927,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.11</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1906,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>178</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1914,13 +1953,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1059602649006623</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1932,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>135</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1940,13 +1979,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.08843537414965986</v>
+        <v>0.2912621359223301</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1958,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>268</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1966,13 +2005,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.08241758241758242</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1984,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1992,13 +2031,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08064516129032258</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2010,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2018,13 +2057,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.03673469387755102</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2036,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>708</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2044,25 +2083,363 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.03259452411994785</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.2290502793296089</v>
+      </c>
+      <c r="C47">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.1839080459770115</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.17</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.1185983827493261</v>
+      </c>
+      <c r="C52">
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.11</v>
+      </c>
+      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1021505376344086</v>
+      </c>
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.09933774834437085</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.07482993197278912</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.0560625814863103</v>
+      </c>
+      <c r="C58">
+        <v>43</v>
+      </c>
+      <c r="D58">
+        <v>43</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="C59">
         <v>25</v>
       </c>
-      <c r="D46">
+      <c r="D59">
         <v>25</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>742</v>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
